--- a/Plotting/0.7.5/KIS.xlsx
+++ b/Plotting/0.7.5/KIS.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Program Files (x86)\Steam\steamapps\common\Kerbal Space Program\GameData\SkyhawkScienceSystem\Plotting\0.7.1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Program Files (x86)\Steam\steamapps\common\Kerbal Space Program\GameData\SkyhawkScienceSystem\Plotting\0.7.5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BAA0386-6142-4C1B-944B-31253896B175}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6022CAF4-CEF2-43FC-B32E-4C2CEA037C51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5880" yWindow="1164" windowWidth="15192" windowHeight="11196" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2304" yWindow="1728" windowWidth="15228" windowHeight="11232" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="KIS" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="36">
   <si>
     <t>PART.name</t>
   </si>
@@ -136,6 +136,9 @@
   </si>
   <si>
     <t>debug</t>
+  </si>
+  <si>
+    <t>landing</t>
   </si>
 </sst>
 </file>
@@ -979,12 +982,13 @@
   <dimension ref="A1:E27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="17.33203125" customWidth="1"/>
+    <col min="2" max="2" width="13.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
@@ -1003,479 +1007,612 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>32</v>
+        <v>31</v>
+      </c>
+      <c r="C2">
+        <v>9</v>
       </c>
       <c r="D2" t="s">
         <v>30</v>
       </c>
       <c r="E2" t="str">
-        <f t="shared" ref="E2" si="0">"@PART["&amp;A2&amp;"]:AFTER["&amp;D2&amp;"] //
+        <f>"@PART["&amp;A2&amp;"]:AFTER["&amp;D2&amp;"] //
 {
 	@TechRequired = "&amp;B2&amp;C2&amp;"
 }"</f>
-        <v>@PART[KIS.bomb1]:AFTER[KIS] //
-{
-	@TechRequired = construction
+        <v>@PART[kis.concreteBase1]:AFTER[KIS] //
+{
+	@TechRequired = bases9
 }</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>31</v>
+        <v>32</v>
+      </c>
+      <c r="C3">
+        <v>6</v>
       </c>
       <c r="D3" t="s">
         <v>30</v>
       </c>
       <c r="E3" t="str">
-        <f t="shared" ref="E3:E27" si="1">"@PART["&amp;A3&amp;"]:AFTER["&amp;D3&amp;"] //
+        <f>"@PART["&amp;A3&amp;"]:AFTER["&amp;D3&amp;"] //
 {
 	@TechRequired = "&amp;B3&amp;C3&amp;"
 }"</f>
-        <v>@PART[kis.concreteBase1]:AFTER[KIS] //
-{
-	@TechRequired = bases
+        <v>@PART[KIS.bomb1]:AFTER[KIS] //
+{
+	@TechRequired = construction6
 }</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="B4" t="s">
-        <v>33</v>
+        <v>32</v>
+      </c>
+      <c r="C4">
+        <v>6</v>
       </c>
       <c r="D4" t="s">
         <v>30</v>
       </c>
       <c r="E4" t="str">
-        <f t="shared" si="1"/>
-        <v>@PART[KIS.Container1]:AFTER[KIS] //
-{
-	@TechRequired = logistics
+        <f>"@PART["&amp;A4&amp;"]:AFTER["&amp;D4&amp;"] //
+{
+	@TechRequired = "&amp;B4&amp;C4&amp;"
+}"</f>
+        <v>@PART[KIS.wrench]:AFTER[KIS] //
+{
+	@TechRequired = construction6
 }</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>33</v>
+        <v>32</v>
+      </c>
+      <c r="C5">
+        <v>7</v>
       </c>
       <c r="D5" t="s">
         <v>30</v>
       </c>
       <c r="E5" t="str">
-        <f t="shared" si="1"/>
-        <v>@PART[KIS.Container2]:AFTER[KIS] //
-{
-	@TechRequired = logistics
+        <f>"@PART["&amp;A5&amp;"]:AFTER["&amp;D5&amp;"] //
+{
+	@TechRequired = "&amp;B5&amp;C5&amp;"
+}"</f>
+        <v>@PART[KIS.electricScrewdriver]:AFTER[KIS] //
+{
+	@TechRequired = construction7
 }</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D6" t="s">
         <v>30</v>
       </c>
       <c r="E6" t="str">
-        <f t="shared" si="1"/>
-        <v>@PART[KIS.Container3]:AFTER[KIS] //
-{
-	@TechRequired = logistics
+        <f>"@PART["&amp;A6&amp;"]:AFTER["&amp;D6&amp;"] //
+{
+	@TechRequired = "&amp;B6&amp;C6&amp;"
+}"</f>
+        <v>@PART[KIS.basketball]:AFTER[KIS] //
+{
+	@TechRequired = debug
 }</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D7" t="s">
         <v>30</v>
       </c>
       <c r="E7" t="str">
-        <f t="shared" si="1"/>
-        <v>@PART[KIS.Container4]:AFTER[KIS] //
-{
-	@TechRequired = logistics
+        <f>"@PART["&amp;A7&amp;"]:AFTER["&amp;D7&amp;"] //
+{
+	@TechRequired = "&amp;B7&amp;C7&amp;"
+}"</f>
+        <v>@PART[KIS.beer]:AFTER[KIS] //
+{
+	@TechRequired = debug
 }</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D8" t="s">
         <v>30</v>
       </c>
       <c r="E8" t="str">
-        <f t="shared" si="1"/>
-        <v>@PART[KIS.Container5]:AFTER[KIS] //
-{
-	@TechRequired = logistics
+        <f>"@PART["&amp;A8&amp;"]:AFTER["&amp;D8&amp;"] //
+{
+	@TechRequired = "&amp;B8&amp;C8&amp;"
+}"</f>
+        <v>@PART[KIS.ghettoblaster]:AFTER[KIS] //
+{
+	@TechRequired = debug
 }</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="B9" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D9" t="s">
         <v>30</v>
       </c>
       <c r="E9" t="str">
-        <f t="shared" si="1"/>
-        <v>@PART[KIS.Container6]:AFTER[KIS] //
-{
-	@TechRequired = logistics
+        <f>"@PART["&amp;A9&amp;"]:AFTER["&amp;D9&amp;"] //
+{
+	@TechRequired = "&amp;B9&amp;C9&amp;"
+}"</f>
+        <v>@PART[KIS.golfclub]:AFTER[KIS] //
+{
+	@TechRequired = debug
 }</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="B10" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D10" t="s">
         <v>30</v>
       </c>
       <c r="E10" t="str">
-        <f t="shared" si="1"/>
-        <v>@PART[KIS.Container7]:AFTER[KIS] //
-{
-	@TechRequired = logistics
+        <f>"@PART["&amp;A10&amp;"]:AFTER["&amp;D10&amp;"] //
+{
+	@TechRequired = "&amp;B10&amp;C10&amp;"
+}"</f>
+        <v>@PART[KIS.guitar]:AFTER[KIS] //
+{
+	@TechRequired = debug
 }</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="B11" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D11" t="s">
         <v>30</v>
       </c>
       <c r="E11" t="str">
-        <f t="shared" si="1"/>
-        <v>@PART[KIS.Container8]:AFTER[KIS] //
-{
-	@TechRequired = logistics
+        <f>"@PART["&amp;A11&amp;"]:AFTER["&amp;D11&amp;"] //
+{
+	@TechRequired = "&amp;B11&amp;C11&amp;"
+}"</f>
+        <v>@PART[KIS.snacks]:AFTER[KIS] //
+{
+	@TechRequired = debug
 }</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="B12" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D12" t="s">
         <v>30</v>
       </c>
       <c r="E12" t="str">
-        <f t="shared" si="1"/>
-        <v>@PART[KIS.ContainerMount1]:AFTER[KIS] //
-{
-	@TechRequired = logistics
+        <f>"@PART["&amp;A12&amp;"]:AFTER["&amp;D12&amp;"] //
+{
+	@TechRequired = "&amp;B12&amp;C12&amp;"
+}"</f>
+        <v>@PART[KIS.taco]:AFTER[KIS] //
+{
+	@TechRequired = debug
 }</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="B13" t="s">
-        <v>32</v>
+        <v>35</v>
+      </c>
+      <c r="C13">
+        <v>8</v>
       </c>
       <c r="D13" t="s">
         <v>30</v>
       </c>
       <c r="E13" t="str">
-        <f t="shared" si="1"/>
-        <v>@PART[KIS.electricScrewdriver]:AFTER[KIS] //
-{
-	@TechRequired = construction
+        <f>"@PART["&amp;A13&amp;"]:AFTER["&amp;D13&amp;"] //
+{
+	@TechRequired = "&amp;B13&amp;C13&amp;"
+}"</f>
+        <v>@PART[SEP.FallenKerbonaut]:AFTER[KIS] //
+{
+	@TechRequired = landing8
 }</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="B14" t="s">
         <v>33</v>
       </c>
+      <c r="C14">
+        <v>6</v>
+      </c>
       <c r="D14" t="s">
         <v>30</v>
       </c>
       <c r="E14" t="str">
-        <f t="shared" si="1"/>
-        <v>@PART[KIS.evapropellant]:AFTER[KIS] //
-{
-	@TechRequired = logistics
+        <f>"@PART["&amp;A14&amp;"]:AFTER["&amp;D14&amp;"] //
+{
+	@TechRequired = "&amp;B14&amp;C14&amp;"
+}"</f>
+        <v>@PART[KIS.Container1]:AFTER[KIS] //
+{
+	@TechRequired = logistics6
 }</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B15" t="s">
         <v>33</v>
       </c>
+      <c r="C15">
+        <v>6</v>
+      </c>
       <c r="D15" t="s">
         <v>30</v>
       </c>
       <c r="E15" t="str">
-        <f t="shared" si="1"/>
-        <v>@PART[KIS.guide]:AFTER[KIS] //
-{
-	@TechRequired = logistics
+        <f>"@PART["&amp;A15&amp;"]:AFTER["&amp;D15&amp;"] //
+{
+	@TechRequired = "&amp;B15&amp;C15&amp;"
+}"</f>
+        <v>@PART[KIS.ContainerMount1]:AFTER[KIS] //
+{
+	@TechRequired = logistics6
 }</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16" t="s">
         <v>33</v>
       </c>
+      <c r="C16">
+        <v>6</v>
+      </c>
       <c r="D16" t="s">
         <v>30</v>
       </c>
       <c r="E16" t="str">
-        <f t="shared" si="1"/>
-        <v>@PART[SEP.Box]:AFTER[KIS] //
-{
-	@TechRequired = logistics
+        <f>"@PART["&amp;A16&amp;"]:AFTER["&amp;D16&amp;"] //
+{
+	@TechRequired = "&amp;B16&amp;C16&amp;"
+}"</f>
+        <v>@PART[KIS.guide]:AFTER[KIS] //
+{
+	@TechRequired = logistics6
 }</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17" t="s">
         <v>33</v>
       </c>
+      <c r="C17">
+        <v>6</v>
+      </c>
       <c r="D17" t="s">
         <v>30</v>
       </c>
       <c r="E17" t="str">
-        <f t="shared" si="1"/>
-        <v>@PART[SEP.StorageLong]:AFTER[KIS] //
-{
-	@TechRequired = logistics
+        <f>"@PART["&amp;A17&amp;"]:AFTER["&amp;D17&amp;"] //
+{
+	@TechRequired = "&amp;B17&amp;C17&amp;"
+}"</f>
+        <v>@PART[SEP.Box]:AFTER[KIS] //
+{
+	@TechRequired = logistics6
 }</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18" t="s">
         <v>33</v>
       </c>
+      <c r="C18">
+        <v>6</v>
+      </c>
       <c r="D18" t="s">
         <v>30</v>
       </c>
       <c r="E18" t="str">
-        <f t="shared" si="1"/>
-        <v>@PART[SEP.StorageShort]:AFTER[KIS] //
-{
-	@TechRequired = logistics
+        <f>"@PART["&amp;A18&amp;"]:AFTER["&amp;D18&amp;"] //
+{
+	@TechRequired = "&amp;B18&amp;C18&amp;"
+}"</f>
+        <v>@PART[SEP.StorageLong]:AFTER[KIS] //
+{
+	@TechRequired = logistics6
 }</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>32</v>
+        <v>33</v>
+      </c>
+      <c r="C19">
+        <v>6</v>
       </c>
       <c r="D19" t="s">
         <v>30</v>
       </c>
       <c r="E19" t="str">
-        <f t="shared" si="1"/>
-        <v>@PART[KIS.wrench]:AFTER[KIS] //
-{
-	@TechRequired = construction
+        <f>"@PART["&amp;A19&amp;"]:AFTER["&amp;D19&amp;"] //
+{
+	@TechRequired = "&amp;B19&amp;C19&amp;"
+}"</f>
+        <v>@PART[SEP.StorageShort]:AFTER[KIS] //
+{
+	@TechRequired = logistics6
 }</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="B20" t="s">
         <v>33</v>
       </c>
+      <c r="C20">
+        <v>7</v>
+      </c>
       <c r="D20" t="s">
         <v>30</v>
       </c>
       <c r="E20" t="str">
-        <f t="shared" si="1"/>
-        <v>@PART[SEP.FallenKerbonaut]:AFTER[KIS] //
-{
-	@TechRequired = logistics
+        <f>"@PART["&amp;A20&amp;"]:AFTER["&amp;D20&amp;"] //
+{
+	@TechRequired = "&amp;B20&amp;C20&amp;"
+}"</f>
+        <v>@PART[KIS.Container6]:AFTER[KIS] //
+{
+	@TechRequired = logistics7
 }</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="B21" t="s">
-        <v>34</v>
+        <v>33</v>
+      </c>
+      <c r="C21">
+        <v>7</v>
       </c>
       <c r="D21" t="s">
         <v>30</v>
       </c>
       <c r="E21" t="str">
-        <f t="shared" si="1"/>
-        <v>@PART[KIS.basketball]:AFTER[KIS] //
-{
-	@TechRequired = debug
+        <f>"@PART["&amp;A21&amp;"]:AFTER["&amp;D21&amp;"] //
+{
+	@TechRequired = "&amp;B21&amp;C21&amp;"
+}"</f>
+        <v>@PART[KIS.evapropellant]:AFTER[KIS] //
+{
+	@TechRequired = logistics7
 }</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="B22" t="s">
-        <v>34</v>
+        <v>33</v>
+      </c>
+      <c r="C22">
+        <v>8</v>
       </c>
       <c r="D22" t="s">
         <v>30</v>
       </c>
       <c r="E22" t="str">
-        <f t="shared" si="1"/>
-        <v>@PART[KIS.beer]:AFTER[KIS] //
-{
-	@TechRequired = debug
+        <f>"@PART["&amp;A22&amp;"]:AFTER["&amp;D22&amp;"] //
+{
+	@TechRequired = "&amp;B22&amp;C22&amp;"
+}"</f>
+        <v>@PART[KIS.Container4]:AFTER[KIS] //
+{
+	@TechRequired = logistics8
 }</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="B23" t="s">
-        <v>34</v>
+        <v>33</v>
+      </c>
+      <c r="C23">
+        <v>9</v>
       </c>
       <c r="D23" t="s">
         <v>30</v>
       </c>
       <c r="E23" t="str">
-        <f t="shared" si="1"/>
-        <v>@PART[KIS.ghettoblaster]:AFTER[KIS] //
-{
-	@TechRequired = debug
+        <f>"@PART["&amp;A23&amp;"]:AFTER["&amp;D23&amp;"] //
+{
+	@TechRequired = "&amp;B23&amp;C23&amp;"
+}"</f>
+        <v>@PART[KIS.Container3]:AFTER[KIS] //
+{
+	@TechRequired = logistics9
 }</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="B24" t="s">
-        <v>34</v>
+        <v>33</v>
+      </c>
+      <c r="C24">
+        <v>9</v>
       </c>
       <c r="D24" t="s">
         <v>30</v>
       </c>
       <c r="E24" t="str">
-        <f t="shared" si="1"/>
-        <v>@PART[KIS.golfclub]:AFTER[KIS] //
-{
-	@TechRequired = debug
+        <f>"@PART["&amp;A24&amp;"]:AFTER["&amp;D24&amp;"] //
+{
+	@TechRequired = "&amp;B24&amp;C24&amp;"
+}"</f>
+        <v>@PART[KIS.Container8]:AFTER[KIS] //
+{
+	@TechRequired = logistics9
 }</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="B25" t="s">
-        <v>34</v>
+        <v>33</v>
+      </c>
+      <c r="C25">
+        <v>10</v>
       </c>
       <c r="D25" t="s">
         <v>30</v>
       </c>
       <c r="E25" t="str">
-        <f t="shared" si="1"/>
-        <v>@PART[KIS.guitar]:AFTER[KIS] //
-{
-	@TechRequired = debug
+        <f>"@PART["&amp;A25&amp;"]:AFTER["&amp;D25&amp;"] //
+{
+	@TechRequired = "&amp;B25&amp;C25&amp;"
+}"</f>
+        <v>@PART[KIS.Container2]:AFTER[KIS] //
+{
+	@TechRequired = logistics10
 }</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="B26" t="s">
-        <v>34</v>
+        <v>33</v>
+      </c>
+      <c r="C26">
+        <v>10</v>
       </c>
       <c r="D26" t="s">
         <v>30</v>
       </c>
       <c r="E26" t="str">
-        <f t="shared" si="1"/>
-        <v>@PART[KIS.snacks]:AFTER[KIS] //
-{
-	@TechRequired = debug
+        <f>"@PART["&amp;A26&amp;"]:AFTER["&amp;D26&amp;"] //
+{
+	@TechRequired = "&amp;B26&amp;C26&amp;"
+}"</f>
+        <v>@PART[KIS.Container7]:AFTER[KIS] //
+{
+	@TechRequired = logistics10
 }</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="B27" t="s">
-        <v>34</v>
+        <v>33</v>
+      </c>
+      <c r="C27">
+        <v>11</v>
       </c>
       <c r="D27" t="s">
         <v>30</v>
       </c>
       <c r="E27" t="str">
-        <f t="shared" si="1"/>
-        <v>@PART[KIS.taco]:AFTER[KIS] //
-{
-	@TechRequired = debug
+        <f>"@PART["&amp;A27&amp;"]:AFTER["&amp;D27&amp;"] //
+{
+	@TechRequired = "&amp;B27&amp;C27&amp;"
+}"</f>
+        <v>@PART[KIS.Container5]:AFTER[KIS] //
+{
+	@TechRequired = logistics11
 }</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E27">
+    <sortCondition ref="B2:B27"/>
+    <sortCondition ref="C2:C27"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>